--- a/data/trans_camb/Hacinamiento_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/Hacinamiento_R-Edad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>0.3899028728159573</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-4.219730714472712</v>
+        <v>-4.219730714472711</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.8318993461242735</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.470433687856945</v>
+        <v>-5.340974233050964</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.474412712453955</v>
+        <v>-3.21730659406199</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-7.431268499253369</v>
+        <v>-7.764686346497991</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.789502381911003</v>
+        <v>-2.698879210979661</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-4.956550296402722</v>
+        <v>-5.007689064532802</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-4.875790041150769</v>
+        <v>-5.116947399932843</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-3.324726199434394</v>
+        <v>-3.161780505530113</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.918050800323642</v>
+        <v>-3.342185539278375</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-5.449832485998066</v>
+        <v>-5.281354676435064</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8286791905489825</v>
+        <v>1.030040595241424</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.865607173851214</v>
+        <v>4.023590220746353</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1229421774083265</v>
+        <v>-0.4949033528692627</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.783011162412587</v>
+        <v>4.441879462519505</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.780561790957679</v>
+        <v>1.776726994954434</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>4.342209588575177</v>
+        <v>4.116015336503591</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.971564038692635</v>
+        <v>1.658004985195119</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.11256636532718</v>
+        <v>1.680872399471409</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.7985604492822626</v>
+        <v>0.8061773941711475</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.05347098465332228</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.5786906740264692</v>
+        <v>-0.5786906740264691</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.09884520985492862</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.6067162081625909</v>
+        <v>-0.604373163641919</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3896166026780664</v>
+        <v>-0.3688651994161083</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.8539990351062724</v>
+        <v>-0.8816216282167734</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2859136512285508</v>
+        <v>-0.2750757548990941</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4947670770506655</v>
+        <v>-0.5095894848593201</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5068736936310207</v>
+        <v>-0.5481831790963611</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3517556533802946</v>
+        <v>-0.3520264425473946</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3349338542746615</v>
+        <v>-0.3552924708136423</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.6094328018650854</v>
+        <v>-0.6186112168190185</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1722987327860165</v>
+        <v>0.2111033216516242</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.6542346434217369</v>
+        <v>0.7089539884942399</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.2021885268361737</v>
+        <v>-0.02779990045668564</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.7614573015984769</v>
+        <v>0.7002199073475349</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2708127421233512</v>
+        <v>0.2771293912133024</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.714906271054548</v>
+        <v>0.6190225503706048</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2968481134764048</v>
+        <v>0.2504148394615428</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3242789407997486</v>
+        <v>0.2524057272345131</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.1346384326933308</v>
+        <v>0.1442137683654708</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.19675874184168</v>
+        <v>-4.069082472753565</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.672973730217109</v>
+        <v>-2.837223633731837</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-7.215784914683314</v>
+        <v>-7.099404472920805</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.249014058124478</v>
+        <v>-1.333395451188355</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-5.401229097561059</v>
+        <v>-5.222234651081062</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-8.0726540748372</v>
+        <v>-7.549267661381336</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.976653300706273</v>
+        <v>-1.91885468116307</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-3.129894920176266</v>
+        <v>-3.208489784956041</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-6.699556030809223</v>
+        <v>-6.630287936433538</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7027781762934482</v>
+        <v>0.9000748847016488</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.191517215579809</v>
+        <v>2.794055800283407</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-2.528761393916673</v>
+        <v>-2.306422876949236</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.599511615414797</v>
+        <v>4.779315540451458</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5650056437119026</v>
+        <v>0.2406923397140136</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-2.3256740143367</v>
+        <v>-2.247949381688988</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.414660168451558</v>
+        <v>2.171765792748961</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.045498848177843</v>
+        <v>0.8693279687015231</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-3.09044476680762</v>
+        <v>-3.199662102124691</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5336899658490256</v>
+        <v>-0.5299292836589901</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3661083358434097</v>
+        <v>-0.3734180211550468</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.9562522459305905</v>
+        <v>-0.9533007932193712</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1428774897422559</v>
+        <v>-0.1317987130762046</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5533785677922308</v>
+        <v>-0.5529442356284435</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.8188089313529575</v>
+        <v>-0.8051341745865908</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2481798963793137</v>
+        <v>-0.2459269226279511</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3902596970665893</v>
+        <v>-0.4010869324263461</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.8308477666601324</v>
+        <v>-0.8398498959316906</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1573994854151287</v>
+        <v>0.2146828394828666</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.6928241247016736</v>
+        <v>0.5856181426535941</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.3990464932853678</v>
+        <v>-0.2896269879572194</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.8757127023872602</v>
+        <v>0.760144449613859</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1064824854079555</v>
+        <v>0.06700587228795761</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.3434248527541319</v>
+        <v>-0.362551893218151</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4086275813731103</v>
+        <v>0.3893641986743457</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1884011763130636</v>
+        <v>0.1642317056403951</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.4907864918089762</v>
+        <v>-0.51120987325269</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-1.425715061804569</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-1.336323407325532</v>
+        <v>-1.336323407325533</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>2.790617370327444</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8342637483369235</v>
+        <v>0.6811523029466087</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.05588404486799</v>
+        <v>-1.938803303723057</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.604338928073708</v>
+        <v>-1.746258464020214</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.262563468600697</v>
+        <v>-1.021865977135264</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-4.445324303751783</v>
+        <v>-4.369185542802582</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-4.512999544922332</v>
+        <v>-4.241854158580054</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.6565175381985452</v>
+        <v>0.6595228259567444</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.523613513668342</v>
+        <v>-2.5243527763726</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-2.166606878926119</v>
+        <v>-2.322145664181177</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.087168923596511</v>
+        <v>6.061430801717179</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.754210713612819</v>
+        <v>2.925860649132993</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.690151491302953</v>
+        <v>3.477166791381196</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.517931719023317</v>
+        <v>5.329753232297677</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.431554639882502</v>
+        <v>1.452036323612956</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.30001068486082</v>
+        <v>1.349580520288835</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.777615350712886</v>
+        <v>4.93156438633839</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.199824183391487</v>
+        <v>1.384841499841907</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.6548702463573</v>
+        <v>1.46101248554866</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.1711116612498058</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.1603830416893052</v>
+        <v>-0.1603830416893054</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.4413374932641477</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.09045971289710197</v>
+        <v>0.1106022727341385</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.401649206446153</v>
+        <v>-0.3667491024005226</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3156736206816075</v>
+        <v>-0.3375556093003221</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.138855819939054</v>
+        <v>-0.1088011297204794</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4454799774540346</v>
+        <v>-0.4489192941471507</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4326080063721822</v>
+        <v>-0.4338744281644871</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08499350570311051</v>
+        <v>0.09381981441650329</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3498816841304328</v>
+        <v>-0.3476394485563707</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2922578058698715</v>
+        <v>-0.3149195830447047</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.044322674689875</v>
+        <v>2.131303556944716</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.9010902520397088</v>
+        <v>1.001390016263972</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.288512295662192</v>
+        <v>1.262817850244369</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.820523920078963</v>
+        <v>0.7836128385341099</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.211613546234814</v>
+        <v>0.2285254824411846</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1997009843159648</v>
+        <v>0.1963347872535873</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8903865599545302</v>
+        <v>0.931641802738704</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2250331797761959</v>
+        <v>0.2578732061449629</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.3146876501107893</v>
+        <v>0.2783259441289894</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>-0.8796072686683136</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-1.846284810483297</v>
+        <v>-1.846284810483298</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-0.2472629645586005</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.969700089126149</v>
+        <v>-1.854311219225956</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.695281969683372</v>
+        <v>-2.581768218177694</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.837498206290457</v>
+        <v>-3.037034419950539</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.67649402238655</v>
+        <v>-3.879783021481129</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.617719604144883</v>
+        <v>-3.802183687666244</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-4.096016528378605</v>
+        <v>-4.377060698432229</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.986895165861703</v>
+        <v>-2.058173377457272</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.35016408217557</v>
+        <v>-2.288784812559637</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-3.03536583956147</v>
+        <v>-2.957536723309848</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.722716653692865</v>
+        <v>2.863401068171922</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.164044149335577</v>
+        <v>2.466932979519688</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.565919632207726</v>
+        <v>1.417292031601335</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.367471697089237</v>
+        <v>1.231648189250764</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.28153388862841</v>
+        <v>1.443404212829227</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3393749164602971</v>
+        <v>0.03632349429800757</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.570032520617985</v>
+        <v>1.446721898402358</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.299393667631693</v>
+        <v>1.166702844641464</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1843506174386957</v>
+        <v>0.2294906541394172</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>-0.1772393098373428</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.372023125807779</v>
+        <v>-0.3720231258077791</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.05586084722187834</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3917806587621351</v>
+        <v>-0.3571112655841528</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.5157173375213971</v>
+        <v>-0.5004044465058123</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.555508633884815</v>
+        <v>-0.5606496653263249</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.5778484880121002</v>
+        <v>-0.6038382890744141</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.5488062657699857</v>
+        <v>-0.5728481734594154</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.6149473638983415</v>
+        <v>-0.6419924555547935</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.3655377579869705</v>
+        <v>-0.3817006086388765</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4265726322723634</v>
+        <v>-0.4243044785577481</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.5333113254594558</v>
+        <v>-0.5237316848899437</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.994094596546513</v>
+        <v>1.006349423310938</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.8287917363006122</v>
+        <v>1.04765507881884</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.6798610239841298</v>
+        <v>0.5914666079678111</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.4007373248338366</v>
+        <v>0.3602694344219093</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3741517479725514</v>
+        <v>0.4150823960151052</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1260628093950184</v>
+        <v>0.03455369205416232</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4506557770692352</v>
+        <v>0.4221257399080689</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.3696006469215816</v>
+        <v>0.3473470424702233</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.08549865427088749</v>
+        <v>0.08985189585682582</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.602167680563226</v>
+        <v>-3.711903655526046</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.149078450166762</v>
+        <v>-4.203248870068224</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-4.143916954074543</v>
+        <v>-4.204324536872146</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-3.793458706071458</v>
+        <v>-4.002513313131925</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-3.595086457244494</v>
+        <v>-3.522540094655774</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-5.362598242241475</v>
+        <v>-5.416812561260475</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-2.869883788862917</v>
+        <v>-2.905967061278317</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-3.180149481210549</v>
+        <v>-3.240709331643472</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-4.030333693475898</v>
+        <v>-4.174571602230706</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.345908474583396</v>
+        <v>1.510313836835947</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.5603477206158735</v>
+        <v>0.7682033973591291</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.4125460412967651</v>
+        <v>0.3986729380266457</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.269329702843135</v>
+        <v>1.392666949927784</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.614572524913377</v>
+        <v>1.687441725765969</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-0.999900466528727</v>
+        <v>-0.9576681869501515</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.7725921267591135</v>
+        <v>0.6053842656191706</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.4073784476610485</v>
+        <v>0.4115595110333763</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-0.9323034858603582</v>
+        <v>-0.9017397143348402</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.4329054399757886</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.468260014025991</v>
+        <v>-0.4682600140259912</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.2798773052888287</v>
@@ -1625,7 +1625,7 @@
         <v>-0.3211201787474665</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.579806729059911</v>
+        <v>-0.5798067290599113</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.6456360167380928</v>
+        <v>-0.6586439700182317</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.7576489338330699</v>
+        <v>-0.7759313459854714</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.7603246796932301</v>
+        <v>-0.7471528675301615</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.6741204265436384</v>
+        <v>-0.6951854174828326</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.6290070507500239</v>
+        <v>-0.6315382265661932</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.8553383882315688</v>
+        <v>-0.8672358811117415</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.566374131940321</v>
+        <v>-0.5589651756690491</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.6032367954980836</v>
+        <v>-0.6290791545877444</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.758563802821771</v>
+        <v>-0.7699860993900152</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.5310272130439683</v>
+        <v>0.6066852025598279</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.3055160157675029</v>
+        <v>0.3931209090221758</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.2071823548742859</v>
+        <v>0.3019131477388518</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.5304003539701649</v>
+        <v>0.5752827380143666</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.6401301437565573</v>
+        <v>0.6415434772566092</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.2853795400887283</v>
+        <v>-0.3405111363891573</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2338725745109139</v>
+        <v>0.226120749202946</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.144488658944053</v>
+        <v>0.1451310758079241</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.2811007788412048</v>
+        <v>-0.2852184153538945</v>
       </c>
     </row>
     <row r="34">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-2.773338935408528</v>
+        <v>-2.742802607792622</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-4.253023528743012</v>
+        <v>-4.117441608598686</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-4.029134183777177</v>
+        <v>-3.888261075843278</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-3.057276581010488</v>
+        <v>-2.999155329075851</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-1.562703769359515</v>
+        <v>-1.502853663822245</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-3.039998384393405</v>
+        <v>-2.921201440359811</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-2.228731408686263</v>
+        <v>-2.05264658378387</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-2.034547882928321</v>
+        <v>-2.095949904524764</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-2.440332534670206</v>
+        <v>-2.599673158910247</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>3.022752181640591</v>
+        <v>2.95523745734104</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>1.019994016439173</v>
+        <v>0.8865354424278777</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>0.6542242422515334</v>
+        <v>0.7264405577584129</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>0.3528803155508592</v>
+        <v>0.5184289318647133</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>3.239713340721119</v>
+        <v>2.906375741736267</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>0.3810452002953566</v>
+        <v>0.365930529373748</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>1.13501594937973</v>
+        <v>1.12594889446443</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>1.200727247352402</v>
+        <v>1.259974880378312</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>0.2210303600923798</v>
+        <v>0.152467620393281</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>0.2728064628794588</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.5283881655423326</v>
+        <v>-0.5283881655423327</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.2043836616124731</v>
@@ -1839,7 +1839,7 @@
         <v>-0.150764627150645</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.4554621576039896</v>
+        <v>-0.4554621576039897</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.5936313307902791</v>
+        <v>-0.6069809016763538</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.8189820164244477</v>
+        <v>-0.8327860749173456</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.7528976480031746</v>
+        <v>-0.7707646330369937</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-1</v>
+        <v>-0.9537352353500556</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.5671811492973102</v>
+        <v>-0.6029740224484171</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.8861720533403906</v>
+        <v>-0.851575667769723</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.656563798656393</v>
+        <v>-0.6179997950900873</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.6061826685992124</v>
+        <v>-0.6213647745396808</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.7224089297370294</v>
+        <v>-0.7562160195987437</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.98937601677888</v>
+        <v>1.617308364312027</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.096197360453194</v>
+        <v>0.7503575697358814</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.6221963322839406</v>
+        <v>0.6104449495065317</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.9645288118664307</v>
+        <v>1.068649346210223</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>3.422936502211367</v>
+        <v>3.380858052174208</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.8367467630036501</v>
+        <v>0.8394082451951355</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.7379773916092767</v>
+        <v>0.7506893231836594</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.7703072129691448</v>
+        <v>0.7296823706627732</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.1973097185497373</v>
+        <v>0.1473526333017285</v>
       </c>
     </row>
     <row r="40">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-2.562308960173792</v>
+        <v>-2.661800789553267</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-3.013238946287019</v>
+        <v>-2.903224260152261</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-3.474490109279787</v>
+        <v>-3.600537609069982</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-2.74519984906405</v>
+        <v>-2.731867725057079</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-2.631531987492517</v>
+        <v>-3.074591984609985</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-3.910690384552763</v>
+        <v>-3.907783147608591</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-2.108885781179112</v>
+        <v>-1.921579486481755</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-2.275535537674704</v>
+        <v>-2.277566921066803</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-2.938499400907808</v>
+        <v>-2.978997933167528</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>2.613652515635318</v>
+        <v>2.586748536026425</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.881887263607133</v>
+        <v>1.804508563862665</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>0.7802367817708746</v>
+        <v>0.6752770548210838</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1.30807629860588</v>
+        <v>1.34587576919186</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>1.783832441846693</v>
+        <v>1.504277869225808</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-0.2868344851061374</v>
+        <v>-0.2080448130124359</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>1.32384375596841</v>
+        <v>1.362797072654675</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>1.113196253870462</v>
+        <v>1.116663289290587</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-0.2122604955757225</v>
+        <v>-0.2441891708872795</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>-0.2508932152838549</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.4940309523427711</v>
+        <v>-0.4940309523427713</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>-0.2806471116704733</v>
@@ -2064,29 +2064,29 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.7991890645109913</v>
-      </c>
-      <c r="D44" s="6" t="n">
-        <v>-0.8623434867918917</v>
-      </c>
+        <v>-0.8119231323101456</v>
+      </c>
+      <c r="D44" s="6" t="inlineStr"/>
       <c r="E44" s="6" t="n">
-        <v>-0.8982695492568451</v>
+        <v>-0.9487704789582146</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.8587964597404151</v>
-      </c>
-      <c r="G44" s="6" t="inlineStr"/>
+        <v>-0.8310368890047722</v>
+      </c>
+      <c r="G44" s="6" t="n">
+        <v>-0.8648707367595586</v>
+      </c>
       <c r="H44" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.6822497699992257</v>
+        <v>-0.655240665862321</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.7579509620815109</v>
+        <v>-0.7543661462260871</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.879093455450503</v>
+        <v>-0.9031739967759858</v>
       </c>
     </row>
     <row r="45">
@@ -2097,29 +2097,29 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>3.448624466141017</v>
-      </c>
-      <c r="D45" s="6" t="n">
-        <v>2.816493112801121</v>
-      </c>
+        <v>3.646328129918873</v>
+      </c>
+      <c r="D45" s="6" t="inlineStr"/>
       <c r="E45" s="6" t="n">
-        <v>1.48185271541689</v>
+        <v>1.360764599740295</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1.493133971783412</v>
-      </c>
-      <c r="G45" s="6" t="inlineStr"/>
+        <v>2.069236197702196</v>
+      </c>
+      <c r="G45" s="6" t="n">
+        <v>2.222445441420223</v>
+      </c>
       <c r="H45" s="6" t="n">
-        <v>0.1505417579916223</v>
+        <v>0.0733928152637687</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>1.205623610534609</v>
+        <v>1.363351253419576</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>1.2022309713543</v>
+        <v>0.9873456724718785</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.06474543452601056</v>
+        <v>-0.1226824103653835</v>
       </c>
     </row>
     <row r="46">
@@ -2158,7 +2158,7 @@
         <v>-0.974147961122064</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>-2.387847548477026</v>
+        <v>-2.387847548477025</v>
       </c>
     </row>
     <row r="47">
@@ -2169,31 +2169,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-1.152086544948398</v>
+        <v>-1.174134047219034</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-1.599877398886741</v>
+        <v>-1.62772802978455</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-3.136190778461394</v>
+        <v>-3.111829336458349</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-0.8649168910686577</v>
+        <v>-0.8940355971363969</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-2.553382748435998</v>
+        <v>-2.464714177424412</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-3.733198063722301</v>
+        <v>-3.785813164797935</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-0.6354106901543876</v>
+        <v>-0.7455479748931201</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-1.758088871882184</v>
+        <v>-1.785545923209208</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-3.130104086760466</v>
+        <v>-3.150064793198142</v>
       </c>
     </row>
     <row r="48">
@@ -2204,31 +2204,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.9991512091954539</v>
+        <v>0.9531750767587033</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>0.579300996862592</v>
+        <v>0.4711147578279776</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-1.084755065515171</v>
+        <v>-1.08190573163197</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>1.445451446554136</v>
+        <v>1.456265587856522</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-0.3549384211915388</v>
+        <v>-0.2850980770329117</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-1.70732448869184</v>
+        <v>-1.696981927787745</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>0.9308869945890278</v>
+        <v>0.7986973465195368</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-0.2194196219123327</v>
+        <v>-0.2142728501431424</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-1.721146319220576</v>
+        <v>-1.6558936151274</v>
       </c>
     </row>
     <row r="49">
@@ -2245,7 +2245,7 @@
         <v>-0.1072116919751956</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>-0.428926675449538</v>
+        <v>-0.4289266754495381</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>0.03923626649269896</v>
@@ -2263,7 +2263,7 @@
         <v>-0.1803975213432702</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>-0.442193379530036</v>
+        <v>-0.4421933795300358</v>
       </c>
     </row>
     <row r="50">
@@ -2274,31 +2274,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.2141799541780419</v>
+        <v>-0.2213651871140735</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.2953380337595596</v>
+        <v>-0.2977351770551427</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.57686712019974</v>
+        <v>-0.5642775901144955</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.1356557776157878</v>
+        <v>-0.1346877193731174</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.3885353551475533</v>
+        <v>-0.3701823395598004</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.5635276202284777</v>
+        <v>-0.5663622294607144</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.1126916225661679</v>
+        <v>-0.1263975971424858</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.2984198024764916</v>
+        <v>-0.308801790032928</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.532062565167061</v>
+        <v>-0.5376297423999018</v>
       </c>
     </row>
     <row r="51">
@@ -2309,31 +2309,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.2439287708677231</v>
+        <v>0.2301029125770239</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.1363233879599607</v>
+        <v>0.1159218328313917</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.2490087668467935</v>
+        <v>-0.2395874668237106</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.2761736783833171</v>
+        <v>0.273244182702031</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>-0.06429583117660995</v>
+        <v>-0.054478932931148</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.3159674658069695</v>
+        <v>-0.3111092365185829</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.1871365347924898</v>
+        <v>0.1594462426476228</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.04001067721239843</v>
+        <v>-0.04174789063850145</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.3374900145231505</v>
+        <v>-0.3346990041597539</v>
       </c>
     </row>
     <row r="52">
